--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BBB01-4889-4A10-9026-7C51183BF598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016ABB0-5394-4822-8039-B7A7412239C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="740" windowWidth="10680" windowHeight="13650" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="6-24&gt;6-29" sheetId="1" r:id="rId1"/>
@@ -31,22 +31,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
   <si>
     <t>Continued reading. Began plotting ways to visualize plots in R using already constructed mothds.</t>
   </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Time Spent</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Visualizations using current methods.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="173" formatCode="h:mm;@"/>
+    <numFmt numFmtId="174" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,10 +102,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,105 +425,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF97D72-A3CA-4F29-98D3-B65C236AA949}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="16" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
         <v>0.40277777777777773</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="7">
         <v>0.44166666666666665</v>
       </c>
-      <c r="C1" s="1">
-        <f>B1-A1</f>
+      <c r="C2" s="5">
+        <f>B2-A2</f>
         <v>3.8888888888888917E-2</v>
-      </c>
-      <c r="D1" s="2">
-        <v>43641</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0.46111111111111108</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C19" si="0">B2-A2</f>
-        <v>0.11527777777777787</v>
       </c>
       <c r="D2" s="2">
         <v>43641</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
+        <v>0.46111111111111108</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C5" si="0">B3-A3</f>
+        <v>0.12916666666666671</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43641</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="1"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43641</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43641</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6">
+        <f>SUM(C2:C29)</f>
+        <v>0.32777777777777783</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3">
+        <f>SUM(P11:P38)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016ABB0-5394-4822-8039-B7A7412239C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB85251-A4FC-426E-9A79-C60F27D4D054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
-    <sheet name="6-24&gt;6-29" sheetId="1" r:id="rId1"/>
+    <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -55,16 +55,20 @@
   </si>
   <si>
     <t>Visualizations using current methods.</t>
+  </si>
+  <si>
+    <t>Visualizations using current methods. Began writing functions that provide some of the basic functionality we want to achieve in the package.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="173" formatCode="h:mm;@"/>
-    <numFmt numFmtId="174" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="169" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,12 +109,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,14 +432,14 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="8.7265625" style="1"/>
     <col min="14" max="16" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="1"/>
@@ -451,7 +455,7 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -459,17 +463,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0.40277777777777773</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0.44166666666666665</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>B2-A2</f>
         <v>3.8888888888888917E-2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="7">
         <v>43641</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -477,17 +481,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>0.46111111111111108</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.59027777777777779</v>
       </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C5" si="0">B3-A3</f>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C6" si="0">B3-A3</f>
         <v>0.12916666666666671</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="7">
         <v>43641</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -495,17 +499,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>0.66527777777777775</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.7583333333333333</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>9.3055555555555558E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="7">
         <v>43641</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -513,17 +517,17 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>0.80486111111111114</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.87152777777777779</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="7">
         <v>43641</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -531,237 +535,251 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5">
+        <f>SUM(C2:C5)</f>
+        <v>0.32777777777777783</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="6">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C7" s="5">
+        <f>B7-A7</f>
+        <v>0.27013888888888882</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43642</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6">
-        <f>SUM(C2:C29)</f>
-        <v>0.32777777777777783</v>
-      </c>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="5">
+        <f>SUM(C2:C29) - C6</f>
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
     </row>
     <row r="33" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
     <row r="34" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
     </row>
     <row r="36" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
     </row>
     <row r="37" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
     </row>
     <row r="38" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
     </row>
     <row r="39" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3">
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
         <f>SUM(P11:P38)</f>
         <v>0</v>
       </c>
@@ -769,5 +787,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C6" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB85251-A4FC-426E-9A79-C60F27D4D054}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6383359-55AB-410E-94A3-A7F3130A6C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Visualizations using current methods. Began writing functions that provide some of the basic functionality we want to achieve in the package.</t>
+  </si>
+  <si>
+    <t>Writing functions that provide some of the basic functionality we want to achieve in the package. Problem found with the slopes from the polynomial functions</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="169" formatCode="m/d;@"/>
+    <numFmt numFmtId="167" formatCode="m/d;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -114,7 +117,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +435,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,7 +491,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C6" si="0">B3-A3</f>
+        <f t="shared" ref="C3:C5" si="0">B3-A3</f>
         <v>0.12916666666666671</v>
       </c>
       <c r="D3" s="7">
@@ -559,14 +562,30 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.91875000000000007</v>
+      </c>
+      <c r="C8" s="5">
+        <f>B8-A8</f>
+        <v>6.9444444444444531E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43642</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <f>C7+C8</f>
+        <v>0.33958333333333335</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
@@ -729,8 +748,8 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5">
-        <f>SUM(C2:C29) - C6</f>
-        <v>0.59791666666666665</v>
+        <f>SUM(C2:C29) - C6 -C9</f>
+        <v>0.66736111111111129</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6383359-55AB-410E-94A3-A7F3130A6C65}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AA5823-C145-4F07-851B-3E27FF671586}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -67,11 +67,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
+    <numFmt numFmtId="171" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -97,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -105,11 +106,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -118,6 +137,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF97D72-A3CA-4F29-98D3-B65C236AA949}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,17 +573,17 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="15">
         <v>0.47291666666666665</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="15">
         <v>0.74305555555555547</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="16">
         <f>B7-A7</f>
         <v>0.27013888888888882</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="17">
         <v>43642</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -562,17 +591,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>0.84930555555555554</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>0.91875000000000007</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <f>B8-A8</f>
         <v>6.9444444444444531E-2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="11">
         <v>43642</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -580,22 +609,37 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13">
         <f>C7+C8</f>
         <v>0.33958333333333335</v>
       </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="6">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="C10" s="5">
+        <f>B10-A10</f>
+        <v>0.33680555555555564</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43643</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13">
+        <f>C10</f>
+        <v>0.33680555555555564</v>
+      </c>
+      <c r="D11" s="14"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -737,20 +781,17 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="8">
+        <f>SUM(C2:C5, C7:C8,C11)</f>
+        <v>1.0041666666666669</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5">
-        <f>SUM(C2:C29) - C6 -C9</f>
-        <v>0.66736111111111129</v>
-      </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -793,13 +834,8 @@
     <row r="38" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2">
-        <f>SUM(P11:P38)</f>
+      <c r="P38" s="2">
+        <f>SUM(P11:P37)</f>
         <v>0</v>
       </c>
     </row>
@@ -807,7 +843,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C6" formula="1"/>
+    <ignoredError sqref="C6 C9" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AA5823-C145-4F07-851B-3E27FF671586}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F789C6-EF12-40BA-97FD-E199417677F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Writing functions that provide some of the basic functionality we want to achieve in the package. Problem found with the slopes from the polynomial functions</t>
+  </si>
+  <si>
+    <t>Writing functions that provide some of the basic functionality we want to achieve in the package. Problem found with the stat_function function in the polynomial functions only calling the last function in the loop.</t>
+  </si>
+  <si>
+    <t>Completed survey. Continued provide some of the basic functionality we want to achieve in the package.</t>
   </si>
 </sst>
 </file>
@@ -72,7 +78,7 @@
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
-    <numFmt numFmtId="171" formatCode="[h]:mm;@"/>
+    <numFmt numFmtId="168" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -137,7 +143,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -464,7 +470,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,7 +526,7 @@
         <v>0.59027777777777779</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C5" si="0">B3-A3</f>
+        <f>B3-A3</f>
         <v>0.12916666666666671</v>
       </c>
       <c r="D3" s="7">
@@ -538,7 +544,7 @@
         <v>0.7583333333333333</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f>B4-A4</f>
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="D4" s="7">
@@ -556,7 +562,7 @@
         <v>0.87152777777777779</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
+        <f>B5-A5</f>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="D5" s="7">
@@ -631,6 +637,9 @@
       <c r="D10" s="7">
         <v>43643</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
@@ -645,9 +654,22 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="6">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="C12" s="5">
+        <f>B12-A12</f>
+        <v>0.33750000000000008</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43646</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -655,7 +677,10 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5">
+        <f>C12</f>
+        <v>0.33750000000000008</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -784,8 +809,8 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8">
-        <f>SUM(C2:C5, C7:C8,C11)</f>
-        <v>1.0041666666666669</v>
+        <f>C6+C9+C11+C13</f>
+        <v>1.341666666666667</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -834,10 +859,7 @@
     <row r="38" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="2">
-        <f>SUM(P11:P37)</f>
-        <v>0</v>
-      </c>
+      <c r="P38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F789C6-EF12-40BA-97FD-E199417677F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9E1116-E266-4660-8514-1309C0E8E7C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
+    <sheet name="Week of 7-1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Completed survey. Continued provide some of the basic functionality we want to achieve in the package.</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Completed general outline of package code. Need to add more features such as se and interactive.</t>
   </si>
 </sst>
 </file>
@@ -134,16 +141,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -153,6 +158,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,17 +477,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF97D72-A3CA-4F29-98D3-B65C236AA949}">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="8.7265625" style="1"/>
     <col min="14" max="16" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="1"/>
@@ -493,7 +503,7 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -501,17 +511,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0.40277777777777773</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>0.44166666666666665</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>B2-A2</f>
         <v>3.8888888888888917E-2</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>43641</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -519,17 +529,17 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>0.46111111111111108</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.59027777777777779</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>B3-A3</f>
         <v>0.12916666666666671</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>43641</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -537,17 +547,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>0.66527777777777775</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.7583333333333333</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>B4-A4</f>
         <v>9.3055555555555558E-2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>43641</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -555,17 +565,17 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>0.80486111111111114</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.87152777777777779</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>B5-A5</f>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>43641</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -573,23 +583,23 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>SUM(C2:C5)</f>
         <v>0.32777777777777783</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>0.47291666666666665</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>0.74305555555555547</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <f>B7-A7</f>
         <v>0.27013888888888882</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>43642</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -597,17 +607,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>0.84930555555555554</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>0.91875000000000007</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f>B8-A8</f>
         <v>6.9444444444444531E-2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>43642</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -615,26 +625,26 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
         <f>C7+C8</f>
         <v>0.33958333333333335</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>0.39999999999999997</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.7368055555555556</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>B10-A10</f>
         <v>0.33680555555555564</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>43643</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -642,29 +652,29 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
         <f>C10</f>
         <v>0.33680555555555564</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="12"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>0.73333333333333339</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f>B12-A12</f>
         <v>0.33750000000000008</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>43646</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -675,9 +685,9 @@
       <c r="P12" s="2"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4">
         <f>C12</f>
         <v>0.33750000000000008</v>
       </c>
@@ -686,180 +696,62 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="17">
+        <f>C6+C9+C11+C13</f>
+        <v>1.341666666666667</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
+    <row r="20" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
+    <row r="21" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
+    <row r="22" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
+    <row r="23" spans="14:16" x14ac:dyDescent="0.35">
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="8">
-        <f>C6+C9+C11+C13</f>
-        <v>1.341666666666667</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,4 +760,136 @@
     <ignoredError sqref="C6 C9" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE138474-AE34-4068-AAE5-DDA396741BA8}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.76944444444444438</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>0.10277777777777775</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43647</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4">
+        <f>SUM(C2:C2)</f>
+        <v>0.10277777777777775</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
+        <f>B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>B8-A8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17">
+        <f>C3+C5+C7+C9</f>
+        <v>0.10277777777777775</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9E1116-E266-4660-8514-1309C0E8E7C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976BFFB8-A0AB-4665-B9A9-026BCDB0D5D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Completed general outline of package code. Need to add more features such as se and interactive.</t>
+  </si>
+  <si>
+    <t>Added the SE feature which, when selected, shows the user the standard error ribbon.</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,21 +821,29 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13">
+        <v>0.73055555555555562</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.76388888888888884</v>
+      </c>
       <c r="C4" s="14">
         <f>B4-A4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="1"/>
+        <v>3.3333333333333215E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43650</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
         <f>C4</f>
-        <v>0</v>
+        <v>3.3333333333333215E-2</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="1"/>
@@ -884,12 +895,15 @@
       </c>
       <c r="C10" s="17">
         <f>C3+C5+C7+C9</f>
-        <v>0.10277777777777775</v>
+        <v>0.13611111111111096</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976BFFB8-A0AB-4665-B9A9-026BCDB0D5D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A704A4D-FABC-4731-B670-8277108F52A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="2" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
     <sheet name="Week of 7-1" sheetId="2" r:id="rId2"/>
+    <sheet name="Wek of 7-8" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -77,6 +78,9 @@
   </si>
   <si>
     <t>Added the SE feature which, when selected, shows the user the standard error ribbon.</t>
+  </si>
+  <si>
+    <t>Wrote test cases in tester.R. Working on adding interactive feature.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +487,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE138474-AE34-4068-AAE5-DDA396741BA8}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -906,4 +910,186 @@
     <ignoredError sqref="C5" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C806E7-9E70-4EF0-9D9F-56592CF18FEA}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.7265625" style="1"/>
+    <col min="14" max="16" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>0.37013888888888885</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43656</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C3" s="4">
+        <f>SUM(C2:C2)</f>
+        <v>0.33402777777777776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
+        <f>B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>B8-A8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="17">
+        <f>C3+C5+C7+C9</f>
+        <v>0.33402777777777776</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="14:16" x14ac:dyDescent="0.35">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A704A4D-FABC-4731-B670-8277108F52A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64A5CD-F40F-4920-983D-FCDB063B918E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="2" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Wrote test cases in tester.R. Working on adding interactive feature.</t>
+  </si>
+  <si>
+    <t>Converted geom_ablines to geom_segments. Working on making polynomial lines shorter</t>
   </si>
 </sst>
 </file>
@@ -917,7 +920,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,20 +975,29 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.68888888888888899</v>
+      </c>
       <c r="C4" s="14">
         <f>B4-A4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="15"/>
+        <v>0.31041666666666673</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43657</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
         <f>C4</f>
-        <v>0</v>
+        <v>0.31041666666666673</v>
       </c>
       <c r="D5" s="12"/>
     </row>
@@ -1038,7 +1050,7 @@
       </c>
       <c r="C10" s="17">
         <f>C3+C5+C7+C9</f>
-        <v>0.33402777777777776</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64A5CD-F40F-4920-983D-FCDB063B918E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C67ECF4-8D51-4956-972B-D0F98088B9C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="2" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="4700" yWindow="750" windowWidth="10680" windowHeight="13650" activeTab="2" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Converted geom_ablines to geom_segments. Working on making polynomial lines shorter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interaction feature moving along, small problem with the parse function. </t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1002,11 +1005,21 @@
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.70347222222222217</v>
+      </c>
       <c r="C6" s="4">
         <f>B6-A6</f>
-        <v>0</v>
+        <v>0.32847222222222217</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43658</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1014,7 +1027,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11">
         <f>C6</f>
-        <v>0</v>
+        <v>0.32847222222222217</v>
       </c>
       <c r="D7" s="12"/>
       <c r="N7" s="2"/>
@@ -1050,7 +1063,7 @@
       </c>
       <c r="C10" s="17">
         <f>C3+C5+C7+C9</f>
-        <v>0.64444444444444449</v>
+        <v>0.97291666666666665</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C67ECF4-8D51-4956-972B-D0F98088B9C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DB297-EE68-44C4-8A16-494A1406080E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="750" windowWidth="10680" windowHeight="13650" activeTab="2" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="3" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
     <sheet name="Week of 7-1" sheetId="2" r:id="rId2"/>
     <sheet name="Wek of 7-8" sheetId="3" r:id="rId3"/>
+    <sheet name="Week of 7-15" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -87,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">Interaction feature moving along, small problem with the parse function. </t>
+  </si>
+  <si>
+    <t>Added title, x axis label, y axis label, legend title. Working on interactive feature, problem with parse function.</t>
   </si>
 </sst>
 </file>
@@ -493,7 +497,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE138474-AE34-4068-AAE5-DDA396741BA8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,56 +863,16 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4">
-        <f>B6-A6</f>
-        <v>0</v>
+      <c r="A6" s="16"/>
+      <c r="B6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17">
+        <f>C3+C5</f>
+        <v>0.13611111111111096</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
-        <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4">
-        <f>B8-A8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4">
-        <f>C8</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17">
-        <f>C3+C5+C7+C9</f>
-        <v>0.13611111111111096</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -920,10 +884,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C806E7-9E70-4EF0-9D9F-56592CF18FEA}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1035,36 +999,24 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4">
-        <f>B8-A8</f>
-        <v>0</v>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17">
+        <f>C3+C5+C7</f>
+        <v>0.97291666666666665</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4">
-        <f>C8</f>
-        <v>0</v>
-      </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="17">
-        <f>C3+C5+C7+C9</f>
-        <v>0.97291666666666665</v>
-      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -1104,15 +1056,123 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="14:16" x14ac:dyDescent="0.35">
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC1C73-8987-43BF-9204-8DCCC597D9FD}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43661</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4">
+        <f>SUM(C2:C2)</f>
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
+        <f>B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17">
+        <f>C3+C5+C7</f>
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394DB297-EE68-44C4-8A16-494A1406080E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F3740-B1CD-4541-8A4F-50E5AF5ACC5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="3" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Added title, x axis label, y axis label, legend title. Working on interactive feature, problem with parse function.</t>
+  </si>
+  <si>
+    <t>Finished interactive feature on non-polynomial points and lines. Added confidence interval and prediction interval functions, removed SE function.</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -180,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,7 +1070,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,7 +1117,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
         <f>SUM(C2:C2)</f>
@@ -1123,21 +1127,29 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.70000000000000007</v>
+      </c>
       <c r="C4" s="14">
         <f>B4-A4</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="1"/>
+        <v>0.3222222222222223</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43662</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
         <f>C4</f>
-        <v>0</v>
+        <v>0.3222222222222223</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="1"/>
@@ -1169,7 +1181,7 @@
       </c>
       <c r="C8" s="17">
         <f>C3+C5+C7</f>
-        <v>0.36736111111111108</v>
+        <v>0.68958333333333344</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3F3740-B1CD-4541-8A4F-50E5AF5ACC5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7FC008-58F1-4DDA-9643-F676F68D08F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="3" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Finished interactive feature on non-polynomial points and lines. Added confidence interval and prediction interval functions, removed SE function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ross talk about reproducability and </t>
+  </si>
+  <si>
+    <t>Fixed problem with legend on plotly with CI/PI. Researched how to make interactive polynomial lines.</t>
   </si>
 </sst>
 </file>
@@ -788,7 +794,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,7 +897,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC1C73-8987-43BF-9204-8DCCC597D9FD}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1155,36 +1161,60 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4">
+      <c r="A6" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C6" s="8">
         <f>B6-A6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43663</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
-        <f>C6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="7">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="C7" s="4">
+        <f>B7-A7</f>
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43663</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="17">
-        <f>C3+C5+C7</f>
-        <v>0.68958333333333344</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>C7+C6</f>
+        <v>0.29583333333333334</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17">
+        <f>C3+C5+C8</f>
+        <v>0.98541666666666683</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7FC008-58F1-4DDA-9643-F676F68D08F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DA7E9-934F-41F6-9218-6F0D41D8EED4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="3" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="4" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
     <sheet name="Week of 7-1" sheetId="2" r:id="rId2"/>
     <sheet name="Wek of 7-8" sheetId="3" r:id="rId3"/>
     <sheet name="Week of 7-15" sheetId="4" r:id="rId4"/>
+    <sheet name="Week of 7-22" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -100,20 +101,33 @@
   </si>
   <si>
     <t>Fixed problem with legend on plotly with CI/PI. Researched how to make interactive polynomial lines.</t>
+  </si>
+  <si>
+    <t>Refactored rl_full_model. Researched interactive polynomial lines.</t>
+  </si>
+  <si>
+    <t>Meeting with Dr. Glanz. Discovered how to make interactive polynomial lines</t>
+  </si>
+  <si>
+    <t>Researched how to make interactive polynomial lines.</t>
+  </si>
+  <si>
+    <t>Worked on interactive polynomial lines.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="167" formatCode="m/d;@"/>
     <numFmt numFmtId="168" formatCode="[h]:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +138,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,10 +185,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -190,8 +212,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1073,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CC1C73-8987-43BF-9204-8DCCC597D9FD}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1207,13 +1232,279 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="7">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.71736111111111101</v>
+      </c>
+      <c r="C9" s="8">
+        <f>B9-A9</f>
+        <v>0.33611111111111097</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43664</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
+        <f>C9</f>
+        <v>0.33611111111111097</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.54722222222222217</v>
+      </c>
+      <c r="C11" s="14">
+        <f>B11-A11</f>
+        <v>0.1687499999999999</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43665</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.65347222222222223</v>
+      </c>
+      <c r="C12" s="8">
+        <f>B12-A12</f>
+        <v>5.3472222222222254E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43665</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
+        <f>C11+C12</f>
+        <v>0.22222222222222215</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17">
-        <f>C3+C5+C8</f>
-        <v>0.98541666666666683</v>
+      <c r="C14" s="17">
+        <f>C3+C5+C8+C10+C13</f>
+        <v>1.54375</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F594B36-2E39-4F28-A086-4960CA09EC4D}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>0.40416666666666662</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>0.31041666666666662</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43668</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>0.79375000000000007</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3-A3</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43668</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4">
+        <f>C2+C3</f>
+        <v>0.34374999999999994</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14">
+        <f>B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4">
+        <f>B8-A8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11">
+        <f>C8+C7</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
+        <f>B10-A10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
+        <f>B12-A12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
+        <f>B13-A13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11">
+        <f>C12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17">
+        <f>C4+C6+C9+C11+C14</f>
+        <v>0.34374999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5DA7E9-934F-41F6-9218-6F0D41D8EED4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31BBE25-D4FE-40E0-9EE0-D51CC3ED92D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="4" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="4700" yWindow="750" windowWidth="10680" windowHeight="13650" activeTab="4" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Worked on interactive polynomial lines.</t>
+  </si>
+  <si>
+    <t>Completed interactive polynomial lines.</t>
+  </si>
+  <si>
+    <t>Fixed CI/PI</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -213,7 +219,6 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1328,7 +1333,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1382,9 +1387,7 @@
         <f>B3-A3</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="D3" s="6">
-        <v>43668</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1398,34 +1401,50 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.73749999999999993</v>
+      </c>
       <c r="C5" s="14">
         <f>B5-A5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1"/>
+        <v>0.32083333333333325</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43669</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11">
         <f>C5</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>0.32083333333333325</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7">
+        <v>0.43541666666666662</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.49791666666666662</v>
+      </c>
       <c r="C7" s="8">
         <f>B7-A7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43670</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
@@ -1434,7 +1453,7 @@
         <f>B8-A8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1442,7 +1461,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="11">
         <f>C8+C7</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
@@ -1454,7 +1473,7 @@
         <f>B10-A10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1474,7 +1493,7 @@
         <f>B12-A12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1504,7 +1523,7 @@
       </c>
       <c r="C15" s="17">
         <f>C4+C6+C9+C11+C14</f>
-        <v>0.34374999999999994</v>
+        <v>0.72708333333333319</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31BBE25-D4FE-40E0-9EE0-D51CC3ED92D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00056B6-593B-40D3-BA79-E1F1A5F5BE57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="750" windowWidth="10680" windowHeight="13650" activeTab="4" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" firstSheet="3" activeTab="4" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
     <sheet name="Week of 7-1" sheetId="2" r:id="rId2"/>
-    <sheet name="Wek of 7-8" sheetId="3" r:id="rId3"/>
+    <sheet name="Werk of 7-8" sheetId="3" r:id="rId3"/>
     <sheet name="Week of 7-15" sheetId="4" r:id="rId4"/>
     <sheet name="Week of 7-22" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Fixed CI/PI</t>
+  </si>
+  <si>
+    <t>Dr. Bodwin's talk on GitHub.</t>
+  </si>
+  <si>
+    <t>Including tidyeval into functions.</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F594B36-2E39-4F28-A086-4960CA09EC4D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1447,49 +1453,65 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4">
-        <f>B8-A8</f>
-        <v>0</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>C7</f>
+        <v>6.25E-2</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <f>C8+C7</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C9" s="8">
+        <f>B9-A9</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43671</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
-        <f>B10-A10</f>
-        <v>0</v>
+        <f>C9</f>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8">
-        <f>C10</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="13">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="C11" s="14">
+        <f>B11-A11</f>
+        <v>0.14097222222222222</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43672</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
         <f>B12-A12</f>
         <v>0</v>
       </c>
@@ -1497,33 +1519,23 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8">
-        <f>B13-A13</f>
-        <v>0</v>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11">
+        <f>C11+C12</f>
+        <v>0.14097222222222222</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11">
-        <f>C12+C13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17">
-        <f>C4+C6+C9+C11+C14</f>
-        <v>0.72708333333333319</v>
+      <c r="C14" s="17">
+        <f>C4+C6+C8+C10+C13</f>
+        <v>0.95138888888888884</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl_000\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00056B6-593B-40D3-BA79-E1F1A5F5BE57}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928020BD-1983-4398-BD00-8E25ADB7E650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" firstSheet="3" activeTab="4" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="5" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Werk of 7-8" sheetId="3" r:id="rId3"/>
     <sheet name="Week of 7-15" sheetId="4" r:id="rId4"/>
     <sheet name="Week of 7-22" sheetId="5" r:id="rId5"/>
+    <sheet name="Week of 8-5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>Including tidyeval into functions.</t>
+  </si>
+  <si>
+    <t>Finished coding. Moved on to package creation and documentation.</t>
+  </si>
+  <si>
+    <t>Fixed bugs with polynomial. Wrote roxygen comments</t>
   </si>
 </sst>
 </file>
@@ -546,17 +553,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="16" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.40277777777777773</v>
       </c>
@@ -591,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.46111111111111108</v>
       </c>
@@ -609,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.66527777777777775</v>
       </c>
@@ -627,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.80486111111111114</v>
       </c>
@@ -645,13 +652,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C6" s="4">
         <f>SUM(C2:C5)</f>
         <v>0.32777777777777783</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>0.47291666666666665</v>
       </c>
@@ -669,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.84930555555555554</v>
       </c>
@@ -687,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11">
@@ -696,7 +703,7 @@
       </c>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0.39999999999999997</v>
       </c>
@@ -714,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11">
@@ -726,7 +733,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0.39583333333333331</v>
       </c>
@@ -747,7 +754,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4">
@@ -758,7 +765,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="18" t="s">
         <v>12</v>
@@ -771,47 +778,47 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -833,9 +840,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -852,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.66666666666666663</v>
       </c>
@@ -870,7 +877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -880,7 +887,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>0.73055555555555562</v>
       </c>
@@ -898,7 +905,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
@@ -908,7 +915,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="18" t="s">
         <v>12</v>
@@ -936,17 +943,17 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="8.7265625" style="1"/>
-    <col min="14" max="16" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.77734375" style="1"/>
+    <col min="14" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -963,7 +970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.37013888888888885</v>
       </c>
@@ -981,13 +988,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" s="4">
         <f>SUM(C2:C2)</f>
         <v>0.33402777777777776</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>0.37847222222222227</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
@@ -1014,7 +1021,7 @@
       </c>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0.375</v>
       </c>
@@ -1032,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11">
@@ -1044,7 +1051,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="18" t="s">
         <v>12</v>
@@ -1057,47 +1064,47 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="14:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="14:16" x14ac:dyDescent="0.3">
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1115,15 +1122,15 @@
       <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.42499999999999999</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -1168,7 +1175,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>0.37777777777777777</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11">
@@ -1196,7 +1203,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1214,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.57986111111111105</v>
       </c>
@@ -1232,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11">
@@ -1242,7 +1249,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.38125000000000003</v>
       </c>
@@ -1260,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
@@ -1270,7 +1277,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>0.37847222222222227</v>
       </c>
@@ -1288,7 +1295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.6</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11">
@@ -1316,7 +1323,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="18" t="s">
         <v>12</v>
@@ -1326,7 +1333,7 @@
         <v>1.54375</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G24" s="20"/>
     </row>
   </sheetData>
@@ -1336,18 +1343,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F594B36-2E39-4F28-A086-4960CA09EC4D}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.40416666666666662</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.79375000000000007</v>
       </c>
@@ -1396,7 +1403,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4">
@@ -1406,7 +1413,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>0.41666666666666669</v>
       </c>
@@ -1424,7 +1431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11">
@@ -1434,7 +1441,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>0.43541666666666662</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11">
@@ -1462,7 +1469,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>0.45833333333333331</v>
       </c>
@@ -1480,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
@@ -1490,7 +1497,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>0.42569444444444443</v>
       </c>
@@ -1508,34 +1515,185 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8">
-        <f>B12-A12</f>
-        <v>0</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f>C11</f>
+        <v>0.14097222222222222</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11">
-        <f>C11+C12</f>
-        <v>0.14097222222222222</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="17">
-        <f>C4+C6+C8+C10+C13</f>
+      <c r="C13" s="17">
+        <f>C4+C6+C8+C10+C12</f>
         <v>0.95138888888888884</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC5EC32-835F-4511-8FB0-D7C36A3A63AD}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43684</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4">
+        <f>C2</f>
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="C4" s="14">
+        <f>B4-A4</f>
+        <v>0.32638888888888884</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43685</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>C4</f>
+        <v>0.32638888888888884</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
+        <f>B8-A8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14">
+        <f>B10-A10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17">
+        <f>C3+C5+C7+C9+C11</f>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928020BD-1983-4398-BD00-8E25ADB7E650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA25BB-EBA5-431D-AD9D-3024CADC2F56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="5" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="5" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>Fixed bugs with polynomial. Wrote roxygen comments</t>
+  </si>
+  <si>
+    <t>Fixed bugs in rl_poly_same_intercept. Finished roxygen comments</t>
+  </si>
+  <si>
+    <t>Wrote vignette.</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1551,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,41 +1633,57 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="7">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="C6" s="8">
         <f>B6-A6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43686</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11">
         <f>C6</f>
-        <v>0</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="7">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.71250000000000002</v>
+      </c>
       <c r="C8" s="8">
         <f>B8-A8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="1"/>
+        <v>0.32916666666666672</v>
+      </c>
+      <c r="D8" s="6">
+        <v>43687</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8">
         <f>C8</f>
-        <v>0</v>
+        <v>0.32916666666666672</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
@@ -1693,7 +1715,7 @@
       </c>
       <c r="C12" s="17">
         <f>C3+C5+C7+C9+C11</f>
-        <v>0.625</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA25BB-EBA5-431D-AD9D-3024CADC2F56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DC9AF-8EC3-4B26-95AC-4BD2D6706EE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="5" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="6" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Week of 7-15" sheetId="4" r:id="rId4"/>
     <sheet name="Week of 7-22" sheetId="5" r:id="rId5"/>
     <sheet name="Week of 8-5" sheetId="6" r:id="rId6"/>
+    <sheet name="Week of 8-12" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>Wrote vignette.</t>
+  </si>
+  <si>
+    <t>Finished vignette. Working on pkgdown website.</t>
+  </si>
+  <si>
+    <t>Worked on pkgdown files.</t>
   </si>
 </sst>
 </file>
@@ -1550,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC5EC32-835F-4511-8FB0-D7C36A3A63AD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,6 +1696,167 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="C10" s="14">
+        <f>B10-A10</f>
+        <v>0.19236111111111115</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43688</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11">
+        <f>C10</f>
+        <v>0.19236111111111115</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17">
+        <f>C3+C5+C7+C9+C11</f>
+        <v>1.3590277777777779</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016F38F-B106-4526-BE73-F46877E66271}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>0.40486111111111112</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>7.0833333333333304E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43689</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4">
+        <f>C2</f>
+        <v>7.0833333333333304E-2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
+        <f>B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8">
+        <f>B8-A8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14">
@@ -1715,7 +1883,7 @@
       </c>
       <c r="C12" s="17">
         <f>C3+C5+C7+C9+C11</f>
-        <v>1.1666666666666667</v>
+        <v>7.0833333333333304E-2</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54DC9AF-8EC3-4B26-95AC-4BD2D6706EE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7398E-E6EE-476D-8ADE-558CEE968F9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="6" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Worked on pkgdown files.</t>
+  </si>
+  <si>
+    <t>pkgdown work and meeting with Dr. Glanz.</t>
   </si>
 </sst>
 </file>
@@ -1740,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016F38F-B106-4526-BE73-F46877E66271}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1787,60 +1790,64 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4">
-        <f>C2</f>
-        <v>7.0833333333333304E-2</v>
+      <c r="A3" s="5">
+        <v>0.55833333333333335</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3">
+        <f>B3-A3</f>
+        <v>-0.55833333333333335</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14">
-        <f>B4-A4</f>
-        <v>0</v>
+      <c r="A4" s="19"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4">
+        <f>C2+C3</f>
+        <v>-0.48750000000000004</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
-        <f>C4</f>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14">
+        <f>B5-A5</f>
         <v>0</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8">
-        <f>B6-A6</f>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>C5</f>
         <v>0</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11">
-        <f>C6</f>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
-        <f>B8-A8</f>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>C7</f>
         <v>0</v>
       </c>
       <c r="D8" s="6"/>
@@ -1850,40 +1857,50 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8">
-        <f>C8</f>
+        <f>B9-A9</f>
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14">
-        <f>B10-A10</f>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
+        <f>C9</f>
         <v>0</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11">
-        <f>C10</f>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
+        <f>B11-A11</f>
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17">
-        <f>C3+C5+C7+C9+C11</f>
-        <v>7.0833333333333304E-2</v>
+      <c r="C13" s="17">
+        <f>C4+C6+C8+C10+C12</f>
+        <v>-0.48750000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7398E-E6EE-476D-8ADE-558CEE968F9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2AC34C-3B0F-4109-99E5-5BDE4B89BC78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="6" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="6" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Week of 8-12" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -148,6 +149,21 @@
   </si>
   <si>
     <t>pkgdown work and meeting with Dr. Glanz.</t>
+  </si>
+  <si>
+    <t>Tried to fixed model coefs.</t>
+  </si>
+  <si>
+    <t>Finished model coefs.</t>
+  </si>
+  <si>
+    <t>Dr. Glanz's talk</t>
+  </si>
+  <si>
+    <t>Finished returning model.</t>
+  </si>
+  <si>
+    <t>Added ability to not input cat variable. Worked on vignette and pkgdown.</t>
   </si>
 </sst>
 </file>
@@ -1743,10 +1759,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016F38F-B106-4526-BE73-F46877E66271}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1793,10 +1809,12 @@
       <c r="A3" s="5">
         <v>0.55833333333333335</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5">
+        <v>0.63472222222222219</v>
+      </c>
       <c r="C3" s="3">
         <f>B3-A3</f>
-        <v>-0.55833333333333335</v>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
@@ -1808,99 +1826,159 @@
       <c r="B4" s="1"/>
       <c r="C4" s="4">
         <f>C2+C3</f>
-        <v>-0.48750000000000004</v>
+        <v>0.14722222222222214</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13">
+        <v>0.42986111111111108</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.70208333333333339</v>
+      </c>
       <c r="C5" s="14">
         <f>B5-A5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
+        <v>0.27222222222222231</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43690</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11">
         <f>C5</f>
-        <v>0</v>
+        <v>0.27222222222222231</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.65694444444444444</v>
+      </c>
       <c r="C7" s="8">
         <f>B7-A7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
+        <v>0.25486111111111109</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43691</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11">
         <f>C7</f>
-        <v>0</v>
+        <v>0.25486111111111109</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="C9" s="8">
         <f>B9-A9</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43692</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
         <f>C9</f>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B11" s="13">
+        <v>0.7090277777777777</v>
+      </c>
       <c r="C11" s="14">
         <f>B11-A11</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
+        <v>0.16736111111111107</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43693</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11">
         <f>C11</f>
-        <v>0</v>
+        <v>0.16736111111111107</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.69236111111111109</v>
+      </c>
+      <c r="C13" s="8">
+        <f>B13-A13</f>
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43694</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
+        <f>C13</f>
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C15" s="17">
         <f>C4+C6+C8+C10+C12</f>
-        <v>-0.48750000000000004</v>
+        <v>0.92499999999999982</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2AC34C-3B0F-4109-99E5-5BDE4B89BC78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59874AD8-910E-4EAB-84C2-CB5B76F31D21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="6" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="7" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="Week of 7-22" sheetId="5" r:id="rId5"/>
     <sheet name="Week of 8-5" sheetId="6" r:id="rId6"/>
     <sheet name="Week of 8-12" sheetId="7" r:id="rId7"/>
+    <sheet name="Week of 8-19" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Added ability to not input cat variable. Worked on vignette and pkgdown.</t>
+  </si>
+  <si>
+    <t>Worked on documentation pages.</t>
+  </si>
+  <si>
+    <t>Dr. Ottosen's talk.</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016F38F-B106-4526-BE73-F46877E66271}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,4 +1990,199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3333C6-6938-4D2B-90FF-AB013823D652}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>0.12013888888888902</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43698</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4">
+        <f>C2</f>
+        <v>0.12013888888888902</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="C4" s="14">
+        <f>B4-A4</f>
+        <v>0.10763888888888895</v>
+      </c>
+      <c r="D4" s="6">
+        <v>43699</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>-0.83194444444444438</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>C4+C5</f>
+        <v>-0.72430555555555542</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <f>B9-A9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8">
+        <f>C9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14">
+        <f>B11-A11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8">
+        <f>B13-A13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
+        <f>C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17">
+        <f>C3+C6+C8+C10+C12</f>
+        <v>-0.60416666666666641</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59874AD8-910E-4EAB-84C2-CB5B76F31D21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B68813-8180-4EB4-A6E6-56A629A43056}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="7" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2072,10 +2072,12 @@
       <c r="A5" s="7">
         <v>0.83194444444444438</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7">
+        <v>0.89722222222222225</v>
+      </c>
       <c r="C5" s="8">
         <f>B5-A5</f>
-        <v>-0.83194444444444438</v>
+        <v>6.5277777777777879E-2</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
@@ -2087,7 +2089,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="11">
         <f>C4+C5</f>
-        <v>-0.72430555555555542</v>
+        <v>0.17291666666666683</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
@@ -2179,7 +2181,7 @@
       </c>
       <c r="C15" s="17">
         <f>C3+C6+C8+C10+C12</f>
-        <v>-0.60416666666666641</v>
+        <v>0.29305555555555585</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B68813-8180-4EB4-A6E6-56A629A43056}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209355BC-B9F8-47C8-97C1-6D3E794929C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="7" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Dr. Ottosen's talk.</t>
+  </si>
+  <si>
+    <t>Built pkgdown site.</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2000,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,21 +2098,29 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.59236111111111112</v>
+      </c>
       <c r="C7" s="8">
         <f>B7-A7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43700</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11">
         <f>C7</f>
-        <v>0</v>
+        <v>9.2361111111111116E-2</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
@@ -2181,7 +2192,7 @@
       </c>
       <c r="C15" s="17">
         <f>C3+C6+C8+C10+C12</f>
-        <v>0.29305555555555585</v>
+        <v>0.38541666666666696</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209355BC-B9F8-47C8-97C1-6D3E794929C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAEAF2D-AD24-43AA-BCB0-565711EBD2A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="3" activeTab="7" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="4" activeTab="8" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Week of 8-5" sheetId="6" r:id="rId6"/>
     <sheet name="Week of 8-12" sheetId="7" r:id="rId7"/>
     <sheet name="Week of 8-19" sheetId="8" r:id="rId8"/>
+    <sheet name="Week of 8-26" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -173,6 +174,9 @@
   </si>
   <si>
     <t>Built pkgdown site.</t>
+  </si>
+  <si>
+    <t>Created index.Rmd</t>
   </si>
 </sst>
 </file>
@@ -1997,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3333C6-6938-4D2B-90FF-AB013823D652}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2126,73 +2130,136 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8">
-        <f>B9-A9</f>
+      <c r="A9" s="16"/>
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17">
+        <f>C3+C6+C8</f>
+        <v>0.38541666666666696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38DE32-AEC0-43E0-8715-4F9AD77451A0}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2-A2</f>
+        <v>0.2097222222222222</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43707</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4">
+        <f>C2</f>
+        <v>0.2097222222222222</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14">
+        <f>B4-A4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8">
-        <f>C9</f>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
         <v>0</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14">
-        <f>B11-A11</f>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <f>C4+C5</f>
         <v>0</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
-        <f>C11</f>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
         <v>0</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8">
-        <f>B13-A13</f>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11">
+        <f>C7</f>
         <v>0</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8">
-        <f>C13</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17">
-        <f>C3+C6+C8+C10+C12</f>
-        <v>0.38541666666666696</v>
+      <c r="C9" s="17">
+        <f>C3+C6+C8</f>
+        <v>0.2097222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackl\Documents\GitHub\LinearModel-RViz-Summer2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAEAF2D-AD24-43AA-BCB0-565711EBD2A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389244C4-3559-4C1F-AD62-F0F7AE6766F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" firstSheet="4" activeTab="8" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="8" xr2:uid="{52C7A5B5-E4C9-488F-9EF2-517115249B59}"/>
   </bookViews>
   <sheets>
     <sheet name="Week of 6-24 " sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Downloaded and setup GithubDesktop. Began reading on Git, GitHub, and Rprojects</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Created index.Rmd</t>
+  </si>
+  <si>
+    <t>Edited ggLinearModel.Rmd and index.Rmd</t>
+  </si>
+  <si>
+    <t>Checked CRAN tests, and fixed all warnings</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2155,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2193,61 +2199,81 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4">
+      <c r="A3" s="5">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C3" s="3">
+        <f>B3-A3</f>
+        <v>1.8749999999999933E-2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4">
         <f>C2</f>
         <v>0.2097222222222222</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14">
-        <f>B4-A4</f>
-        <v>0</v>
-      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
+      <c r="A5" s="13">
+        <v>0.59652777777777777</v>
+      </c>
+      <c r="B5" s="13">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="C5" s="14">
         <f>B5-A5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43710</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11">
-        <f>C4+C5</f>
-        <v>0</v>
+        <f>C5</f>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="7">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.48749999999999999</v>
+      </c>
       <c r="C7" s="8">
         <f>B7-A7</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="1"/>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43711</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11">
         <f>C7</f>
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
@@ -2258,8 +2284,8 @@
         <v>12</v>
       </c>
       <c r="C9" s="17">
-        <f>C3+C6+C8</f>
-        <v>0.2097222222222222</v>
+        <f>C4+C6+C8</f>
+        <v>0.37291666666666662</v>
       </c>
     </row>
   </sheetData>
